--- a/classwork on bakery sales.xlsx
+++ b/classwork on bakery sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D31D24-3042-45AF-9E67-2965E4EC8FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174555C1-FF96-4BD2-A795-F390A19C5A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A328C9B-B1D2-41FD-AA41-A0057DCAB727}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,8 +545,8 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <f>SUM(B2:B6)</f>
-        <v>530</v>
+        <f>MAX(B2:B6)</f>
+        <v>300</v>
       </c>
       <c r="C10">
         <f>MAX(C2:C6)</f>
